--- a/forwardprimer-v3_32.xlsx
+++ b/forwardprimer-v3_32.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_32" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2977-CACATGAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACATGAGGATCGTCGGCAGCGTC</t>
+    <t>F2977-AAGCTGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2978-TCTCGTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTACGTTCGTCGGCAGCGTC</t>
+    <t>F2978-AACCAACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCAACCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2979-TTCAGAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGAAGGTTCGTCGGCAGCGTC</t>
+    <t>F2979-AGAAGACAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGACAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2980-AGATGACGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGACGACTCGTCGGCAGCGTC</t>
+    <t>F2980-ACACTACGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTACGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2981-CAACACAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACACAGCTTCGTCGGCAGCGTC</t>
+    <t>F2981-AGTGACACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGACACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2982-ACTAGCAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGCAAGATCGTCGGCAGCGTC</t>
+    <t>F2982-ACTGTCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTCAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2983-TACTGATGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGATGAGTCGTCGGCAGCGTC</t>
+    <t>F2983-GCAGAAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGAAGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2984-TGTCACTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCACTCTATCGTCGGCAGCGTC</t>
+    <t>F2984-AAGGTCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2985-ACAGGAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGAGATCTCGTCGGCAGCGTC</t>
+    <t>F2985-ACTCATCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCATCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2986-CATGCTTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGCTTCTGTCGTCGGCAGCGTC</t>
+    <t>F2986-AAGTGATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGATGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2987-TGATGGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGGATCCTCGTCGGCAGCGTC</t>
+    <t>F2987-CTGTCATCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTCATCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2988-AAGCACAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACAGTTTCGTCGGCAGCGTC</t>
+    <t>F2988-ATGCATCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCATCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2989-TTCAGACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGACGTATCGTCGGCAGCGTC</t>
+    <t>F2989-TGCTTCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTTCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2990-CTCCAGAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCAGAGATTCGTCGGCAGCGTC</t>
+    <t>F2990-AGAACGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACGTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2991-CTTGTGGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTGGAGATCGTCGGCAGCGTC</t>
+    <t>F2991-AACAACTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2992-GTTGTTCGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTTCGTCTCGTCGGCAGCGTC</t>
+    <t>F2992-GATCTACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2993-TGTCCTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCTCGTATCGTCGGCAGCGTC</t>
+    <t>F2993-GTTGACTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2994-GACATCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACATCTGTATCGTCGGCAGCGTC</t>
+    <t>F2994-ACTGTTGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTTGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2995-GTACTGAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTGAGTTTCGTCGGCAGCGTC</t>
+    <t>F2995-GATGTGCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2996-GCACTTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACTTGTCATCGTCGGCAGCGTC</t>
+    <t>F2996-TTCTGAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGAAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2997-TTGAACTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAACTAGCTCGTCGGCAGCGTC</t>
+    <t>F2997-CCTAGATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGATGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2998-TCAACTCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTCTGCTCGTCGGCAGCGTC</t>
+    <t>F2998-CTTGGAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2999-AACTGTGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTGGATTCGTCGGCAGCGTC</t>
+    <t>F2999-CGTCCAAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCCAAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3000-GCTTGATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGATGCATCGTCGGCAGCGTC</t>
+    <t>F3000-TCTGTCATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3001-CAGAGAAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGAAGAATCGTCGGCAGCGTC</t>
+    <t>F3001-GTAGAGTAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGTAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3002-AGCTACCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACCAACTCGTCGGCAGCGTC</t>
+    <t>F3002-AGTCTTGAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTTGAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3003-TGCTGAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGAACGTTCGTCGGCAGCGTC</t>
+    <t>F3003-ACCTACTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTACTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3004-GATGTGGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGGAAGTCGTCGGCAGCGTC</t>
+    <t>F3004-TACTTGGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTTGGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3005-AAGTGACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGACTGCTCGTCGGCAGCGTC</t>
+    <t>F3005-TGTCCTACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCTACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3006-AACACGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACGTTCTTCGTCGGCAGCGTC</t>
+    <t>F3006-GTGTGCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGCACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3007-GTTGCATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCATCTCTCGTCGGCAGCGTC</t>
+    <t>F3007-TCAGTGAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3008-TAGACTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTCTACTCGTCGGCAGCGTC</t>
+    <t>F3008-TGCAGATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGATCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3009-GGAAGAAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGAAGATTCGTCGGCAGCGTC</t>
+    <t>F3009-CGTTGTTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGTTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F3010-GATGGAAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGAAGTCTCGTCGGCAGCGTC</t>
+    <t>F3010-AACTGACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F3011-TTGTTGGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTTGGAACTCGTCGGCAGCGTC</t>
+    <t>F3011-GAAGACTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F3012-TCTCACTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCACTGACTCGTCGGCAGCGTC</t>
+    <t>F3012-TCTCTGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F3013-GAACTTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTTCGTATCGTCGGCAGCGTC</t>
+    <t>F3013-GTGTCTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F3014-TACAAGCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGCTCCTCGTCGGCAGCGTC</t>
+    <t>F3014-GAGAGTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F3015-CAACGTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTCGATTCGTCGGCAGCGTC</t>
+    <t>F3015-TCTCGTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F3016-GCATCAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATCAGTTCTCGTCGGCAGCGTC</t>
+    <t>F3016-ACAAGGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F3017-TCGTGACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGACAGTTCGTCGGCAGCGTC</t>
+    <t>F3017-AGTCCACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F3018-TTCTGTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGTCAACTCGTCGGCAGCGTC</t>
+    <t>F3018-ACTTGCACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTGCACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F3019-CACAGGTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAGGTAGTTCGTCGGCAGCGTC</t>
+    <t>F3019-AGTAGCACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGCACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F3020-ATGAGGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGGATGCTCGTCGGCAGCGTC</t>
+    <t>F3020-ACCAGACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAGACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F3021-GGTAGAACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGAACTCTCGTCGGCAGCGTC</t>
+    <t>F3021-CTGGTAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGGTAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F3022-CATCTAGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTAGTGCTCGTCGGCAGCGTC</t>
+    <t>F3022-TCACGTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F3023-AGCAACTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACTGGTTCGTCGGCAGCGTC</t>
+    <t>F3023-TAGATGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGATGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F3024-TTCATGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCATGTCAGTCGTCGGCAGCGTC</t>
+    <t>F3024-TCTTGCTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGCTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F3025-CAAGTCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTCAGATTCGTCGGCAGCGTC</t>
+    <t>F3025-CGATCATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCATGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F3026-AGAGTCCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCCACTTCGTCGGCAGCGTC</t>
+    <t>F3026-TGAGTGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3027-CAAGTGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGTAGCTCGTCGGCAGCGTC</t>
+    <t>F3027-AAGACTTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F3028-AACTTCGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTTCGACCTCGTCGGCAGCGTC</t>
+    <t>F3028-AACTTCCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTTCCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F3029-CACTACACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTACACGATCGTCGGCAGCGTC</t>
+    <t>F3029-CTACTCTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTCTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F3030-TCTCGTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTCTGATCGTCGGCAGCGTC</t>
+    <t>F3030-TTCGATCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGATCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F3031-GGAAGAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGAGAACTCGTCGGCAGCGTC</t>
+    <t>F3031-AGGAGAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F3032-AGGTTGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTGTCGATCGTCGGCAGCGTC</t>
+    <t>F3032-AACTAGCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTAGCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F3033-AGCTGCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGCTAGATCGTCGGCAGCGTC</t>
+    <t>F3033-ATCAAGCTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAAGCTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F3034-GTTCCTGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCTGGAATCGTCGGCAGCGTC</t>
+    <t>F3034-GATGAGCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F3035-TCCACTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACTGAACTCGTCGGCAGCGTC</t>
+    <t>F3035-GGTAGTAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGTAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F3036-TGACAAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACAAGGTATCGTCGGCAGCGTC</t>
+    <t>F3036-AGTCAAGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAAGCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F3037-TGACGAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACGAGACTTCGTCGGCAGCGTC</t>
+    <t>F3037-ATCGTCTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F3038-GTAGAACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAACTGATCGTCGGCAGCGTC</t>
+    <t>F3038-GTTCCACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCCACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F3039-GAGTGACTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGACTTGTCGTCGGCAGCGTC</t>
+    <t>F3039-TTGACATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACATGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F3040-GTGATGCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGATGCTGTTCGTCGGCAGCGTC</t>
+    <t>F3040-TTGACGATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACGATCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F3041-AACCAAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAAGCAATCGTCGGCAGCGTC</t>
+    <t>F3041-TACCTCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTCTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F3042-ACCTACGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTACGACTTCGTCGGCAGCGTC</t>
+    <t>F3042-ACGAAGGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F3043-TGAGGACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGGACGTATCGTCGGCAGCGTC</t>
+    <t>F3043-GGATGGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGGTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F3044-TGAGCTACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTACATTCGTCGGCAGCGTC</t>
+    <t>F3044-TGAAGTCGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGTCGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F3045-ATCGATCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGATCCTATCGTCGGCAGCGTC</t>
+    <t>F3045-TGAGAGGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F3046-GCTTGAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGAGTAGTCGTCGGCAGCGTC</t>
+    <t>F3046-AGGACAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGACAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F3047-AAGTTCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTCATGCTCGTCGGCAGCGTC</t>
+    <t>F3047-GACGTTCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGTTCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F3048-ACACCACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCACAGATCGTCGGCAGCGTC</t>
+    <t>F3048-TAGACTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F3049-GTCTTGCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGCTTGTCGTCGGCAGCGTC</t>
+    <t>F3049-CACGTACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGTACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F3050-CAAGACAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACAGGATCGTCGGCAGCGTC</t>
+    <t>F3050-GTGTGTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F3051-TGCAGTAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGTAGCATCGTCGGCAGCGTC</t>
+    <t>F3051-CTGAAGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAAGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F3052-ACTCAACGAC</t>
+    <t>F3052-ACTACCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACCACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F3053-ACACCTTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACCTTCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F3054-GTGGTCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTCAAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F3055-GCATGTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATGTCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F3056-TTGCAACAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAACAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F3057-ACTCAACGAC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACACTCAACGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F3053-GAACACCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F3054-CTGTGTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGTCGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F3055-ATCTTGCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTTGCTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F3056-TGCAGACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGACATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F3057-TAGAACGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F3058-AAGAAGTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGTACGTCGTCGGCAGCGTC</t>
+    <t>F3058-CCTTGAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F3059-AGGAACCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACCAGTTCGTCGGCAGCGTC</t>
+    <t>F3059-TCATGAGCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGAGCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F3060-AGACTGTCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGTCTCTCGTCGGCAGCGTC</t>
+    <t>F3060-TCACGTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F3061-TCGTAGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTAGGTCATCGTCGGCAGCGTC</t>
+    <t>F3061-GGTTGAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGAAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F3062-TGAGAGGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGGTGATCGTCGGCAGCGTC</t>
+    <t>F3062-TCCAACTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3063-AACAGTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTTCCATCGTCGGCAGCGTC</t>
+    <t>F3063-ACAACACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3064-AGGTCTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTCGATTCGTCGGCAGCGTC</t>
+    <t>F3064-GCACTTCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACTTCTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3065-GGTCAGTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTCAGTTGTTCGTCGGCAGCGTC</t>
+    <t>F3065-TCAACAGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACAGCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3066-TACGACGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGACGTAGTCGTCGGCAGCGTC</t>
+    <t>F3066-CTTCAGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3067-ATCGTACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTACGTTTCGTCGGCAGCGTC</t>
+    <t>F3067-CCTACTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3068-TGTTCACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCACCACTCGTCGGCAGCGTC</t>
+    <t>F3068-GCTTCACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCACGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3069-AGTAGCAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGCAGCTTCGTCGGCAGCGTC</t>
+    <t>F3069-GTGGAGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGAGTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3070-TGTGGACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGACGATTCGTCGGCAGCGTC</t>
+    <t>F3070-TAGCTCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTCAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3071-TTGGAAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAAGTGTTCGTCGGCAGCGTC</t>
+    <t>F3071-CACAGCTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAGCTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3072-ACAGCTACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGCTACCATCGTCGGCAGCGTC</t>
+    <t>F3072-ACTGACAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGACAACGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
